--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD5EEE-4FB4-4FDC-A13D-CC465BBD3E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F460A3C1-7AC8-4224-9834-D70C78327D24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,928 +361,1335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <f>100*A2</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
         <f>A2^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">A3^2</f>
+        <f t="shared" ref="B3:B66" si="0">100*A3</f>
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">A3^2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
         <v>676</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
         <v>841</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
         <v>961</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
         <v>1089</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
         <v>1156</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
         <v>1296</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
         <v>1369</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
         <v>1444</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
         <v>1521</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
         <v>1681</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
         <v>1764</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
         <v>1849</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
         <v>2116</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
         <v>2209</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
         <v>2304</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
+        <v>5100</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
         <v>2601</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
         <v>2704</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
+        <v>5300</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
         <v>2809</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
         <v>2916</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
         <v>3025</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
+        <v>5600</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
         <v>3136</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
         <v>3249</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
         <v>3364</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
         <v>3481</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
+        <v>6100</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
         <v>3721</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
         <v>3844</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
         <v>3969</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="1">A67^2</f>
+        <f t="shared" ref="B67:B102" si="2">100*A67</f>
+        <v>6500</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C102" si="3">A67^2</f>
         <v>4225</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
         <v>4356</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>6700</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
         <v>4489</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>6800</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
         <v>4624</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>6900</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
         <v>4761</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
         <v>4900</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
         <v>5041</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
         <v>5184</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7300</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
         <v>5329</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7400</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
         <v>5476</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
         <v>5625</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
         <v>5776</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
         <v>5929</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
         <v>6084</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>7900</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
         <v>6241</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
         <v>6400</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
         <v>6561</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8200</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
         <v>6724</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8300</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
         <v>6889</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
         <v>7056</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8500</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
         <v>7225</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8600</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
         <v>7396</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8700</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
         <v>7569</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
         <v>7744</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>8900</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
         <v>7921</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
         <v>8100</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9100</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
         <v>8281</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9200</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
         <v>8464</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9300</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
         <v>8649</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9400</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
         <v>8836</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
         <v>9025</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
         <v>9216</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9700</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
         <v>9409</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9800</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
         <v>9604</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9900</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
         <v>9801</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
     </row>
